--- a/BRKB.xlsx
+++ b/BRKB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E84FB6-37FE-486E-B38F-7ABB3E1A4369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF66CB4-E8F0-41BC-AFC8-D052FE32AF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{5D77292D-10E0-4CAF-8203-C26E2893D99A}"/>
+    <workbookView xWindow="1740" yWindow="315" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{5D77292D-10E0-4CAF-8203-C26E2893D99A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>BRKB</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>P/TB+Rev</t>
-  </si>
-  <si>
-    <t>Buy Price</t>
   </si>
   <si>
     <t>Fair Price</t>
@@ -247,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,16 +252,36 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -287,23 +304,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -636,109 +656,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95191B4-465A-4E56-8979-BEAA8845F5E5}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
-        <v>504</v>
-      </c>
-      <c r="E2" s="3">
-        <v>757400</v>
-      </c>
-      <c r="F2" s="3">
-        <f>D2</f>
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="M2" s="3">
+        <v>490</v>
+      </c>
+      <c r="N2" s="3">
+        <v>735920</v>
+      </c>
+      <c r="O2" s="3">
+        <f>M2</f>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="M3" s="4">
         <f>1342.84</f>
         <v>1342.84</v>
       </c>
-      <c r="E3" s="3">
+      <c r="N3" s="3">
         <v>0.54300000000000004</v>
       </c>
-      <c r="F3">
-        <f>D3+(E3*1500)</f>
+      <c r="O3" s="2">
+        <f>M3+(N3*1500)</f>
         <v>2157.34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="P3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
-        <f>D3*D2</f>
-        <v>676791.36</v>
-      </c>
-      <c r="E4" s="2">
-        <f>E3*E2</f>
-        <v>411268.2</v>
-      </c>
-      <c r="F4" s="2">
-        <f>F3*F2</f>
-        <v>1087299.3600000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="M4" s="4">
+        <f>M3*M2</f>
+        <v>657991.6</v>
+      </c>
+      <c r="N4" s="4">
+        <f>N3*N2</f>
+        <v>399604.56000000006</v>
+      </c>
+      <c r="O4" s="4">
+        <f>O3*O2</f>
+        <v>1057096.6000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="P5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="G6" t="s">
+      <c r="M6" s="4"/>
+      <c r="P6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="M7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -747,1614 +767,1605 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0951F0D-51FB-4516-80C8-99A1050AEC8B}">
-  <dimension ref="A1:DL64"/>
+  <dimension ref="A1:DL65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S30" sqref="S30"/>
+      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="4.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="6">
+      <c r="H2" s="6">
         <v>2025</v>
       </c>
-      <c r="I1" s="6">
-        <f>H1+1</f>
+      <c r="I2" s="6">
+        <f>H2+1</f>
         <v>2026</v>
       </c>
-      <c r="J1" s="6">
-        <f t="shared" ref="J1:Q1" si="0">I1+1</f>
+      <c r="J2" s="6">
+        <f t="shared" ref="J2:Q2" si="0">I2+1</f>
         <v>2027</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K2" s="6">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L2" s="6">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M2" s="6">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N2" s="6">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O2" s="6">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P2" s="6">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q2" s="6">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:116" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="3" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="4">
         <v>5671</v>
       </c>
-      <c r="D3" s="2">
-        <f>C3*1.01</f>
+      <c r="D4" s="4">
+        <f>C4*1.01</f>
         <v>5727.71</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:F3" si="1">D3*1.01</f>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:F4" si="1">D4*1.01</f>
         <v>5784.9871000000003</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="4">
         <f t="shared" si="1"/>
         <v>5842.8369710000006</v>
       </c>
-      <c r="H3" s="7">
-        <f>SUM(C3:F3)</f>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H11" si="2">SUM(C4:F4)</f>
         <v>23026.534070999998</v>
       </c>
-      <c r="I3" s="2">
-        <f>H3*1.04</f>
+      <c r="I4" s="4">
+        <f>H4*1.04</f>
         <v>23947.595433840001</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:Q3" si="2">I3*1.04</f>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:Q4" si="3">I4*1.04</f>
         <v>24905.4992511936</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K4" s="4">
+        <f t="shared" si="3"/>
+        <v>25901.719221241343</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="3"/>
+        <v>26937.787990090997</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="3"/>
+        <v>28015.29950969464</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="3"/>
+        <v>29135.911490082428</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="3"/>
+        <v>30301.347949685725</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="3"/>
+        <v>31513.401867673154</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" si="3"/>
+        <v>32773.937942380078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5494</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5*1.01</f>
+        <v>5548.94</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:F5" si="4">D5*1.01</f>
+        <v>5604.4294</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="4"/>
+        <v>5660.4736940000003</v>
+      </c>
+      <c r="H5" s="4">
         <f t="shared" si="2"/>
-        <v>25901.719221241343</v>
-      </c>
-      <c r="L3" s="2">
+        <v>22307.843094</v>
+      </c>
+      <c r="I5" s="4">
+        <f>H5*1.1</f>
+        <v>24538.627403400002</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:Q5" si="5">I5*1.1</f>
+        <v>26992.490143740004</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="5"/>
+        <v>29691.739158114007</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="5"/>
+        <v>32660.913073925411</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="5"/>
+        <v>35927.004381317951</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="5"/>
+        <v>39519.704819449747</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="5"/>
+        <v>43471.675301394724</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="5"/>
+        <v>47818.842831534203</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" si="5"/>
+        <v>52600.72711468763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4">
+        <v>878</v>
+      </c>
+      <c r="D6" s="4">
+        <f>C6*1.01</f>
+        <v>886.78</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" ref="E6:F6" si="6">D6*1.01</f>
+        <v>895.64779999999996</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="6"/>
+        <v>904.60427800000002</v>
+      </c>
+      <c r="H6" s="4">
         <f t="shared" si="2"/>
-        <v>26937.787990090997</v>
-      </c>
-      <c r="M3" s="2">
+        <v>3565.0320780000002</v>
+      </c>
+      <c r="I6" s="4">
+        <f>H6*1.03</f>
+        <v>3671.9830403400001</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" ref="J6:Q6" si="7">I6*1.03</f>
+        <v>3782.1425315502001</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="7"/>
+        <v>3895.6068074967061</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="7"/>
+        <v>4012.4750117216072</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="7"/>
+        <v>4132.8492620732559</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="7"/>
+        <v>4256.8347399354534</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="7"/>
+        <v>4384.5397821335173</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="7"/>
+        <v>4516.0759755975232</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="shared" si="7"/>
+        <v>4651.5582548654493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="8">
+        <f>SUM(C4:C6)</f>
+        <v>12043</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:F7" si="8">SUM(D4:D6)</f>
+        <v>12163.43</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="8"/>
+        <v>12285.0643</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="8"/>
+        <v>12407.914943000002</v>
+      </c>
+      <c r="H7" s="8">
         <f t="shared" si="2"/>
-        <v>28015.29950969464</v>
-      </c>
-      <c r="N3" s="2">
+        <v>48899.409243000002</v>
+      </c>
+      <c r="I7" s="8">
+        <f>SUM(I4:I6)</f>
+        <v>52158.205877579996</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" ref="J7:Q7" si="9">SUM(J4:J6)</f>
+        <v>55680.131926483802</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="9"/>
+        <v>59489.065186852051</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="9"/>
+        <v>63611.176075738018</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="9"/>
+        <v>68075.153153085848</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="9"/>
+        <v>72912.451049467621</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="9"/>
+        <v>78157.56303321397</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="9"/>
+        <v>83848.320674804883</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="9"/>
+        <v>90026.22331193315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3873</v>
+      </c>
+      <c r="D8" s="4">
+        <f>C8*1.01</f>
+        <v>3911.73</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" ref="E8:F8" si="10">D8*1.01</f>
+        <v>3950.8472999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="10"/>
+        <v>3990.3557729999998</v>
+      </c>
+      <c r="H8" s="4">
         <f t="shared" si="2"/>
-        <v>29135.911490082428</v>
-      </c>
-      <c r="O3" s="2">
+        <v>15725.933072999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4091</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C9*1.01</f>
+        <v>4131.91</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" ref="E9:F9" si="11">D9*1.01</f>
+        <v>4173.2290999999996</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="11"/>
+        <v>4214.9613909999998</v>
+      </c>
+      <c r="H9" s="4">
         <f t="shared" si="2"/>
-        <v>30301.347949685725</v>
-      </c>
-      <c r="P3" s="2">
+        <v>16611.100491000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4">
+        <v>846</v>
+      </c>
+      <c r="D10" s="4">
+        <f>C10*1.01</f>
+        <v>854.46</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" ref="E10:F10" si="12">D10*1.01</f>
+        <v>863.0046000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="12"/>
+        <v>871.63464600000009</v>
+      </c>
+      <c r="H10" s="4">
         <f t="shared" si="2"/>
-        <v>31513.401867673154</v>
-      </c>
-      <c r="Q3" s="2">
+        <v>3435.0992460000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4">
+        <v>917</v>
+      </c>
+      <c r="D11" s="4">
+        <f>C11*1.01</f>
+        <v>926.17</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" ref="E11:F11" si="13">D11*1.01</f>
+        <v>935.43169999999998</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="13"/>
+        <v>944.78601700000002</v>
+      </c>
+      <c r="H11" s="4">
         <f t="shared" si="2"/>
-        <v>32773.937942380078</v>
-      </c>
-    </row>
-    <row r="4" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5494</v>
-      </c>
-      <c r="D4" s="2">
-        <f>C4*1.01</f>
-        <v>5548.94</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:F4" si="3">D4*1.01</f>
-        <v>5604.4294</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="3"/>
-        <v>5660.4736940000003</v>
-      </c>
-      <c r="H4" s="7">
-        <f>SUM(C4:F4)</f>
-        <v>22307.843094</v>
-      </c>
-      <c r="I4" s="2">
-        <f>H4*1.1</f>
-        <v>24538.627403400002</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:Q4" si="4">I4*1.1</f>
-        <v>26992.490143740004</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="4"/>
-        <v>29691.739158114007</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" si="4"/>
-        <v>32660.913073925411</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" si="4"/>
-        <v>35927.004381317951</v>
-      </c>
-      <c r="N4" s="2">
-        <f t="shared" si="4"/>
-        <v>39519.704819449747</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" si="4"/>
-        <v>43471.675301394724</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" si="4"/>
-        <v>47818.842831534203</v>
-      </c>
-      <c r="Q4" s="2">
-        <f t="shared" si="4"/>
-        <v>52600.72711468763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2">
-        <v>878</v>
-      </c>
-      <c r="D5" s="2">
-        <f>C5*1.01</f>
-        <v>886.78</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" ref="E5:F5" si="5">D5*1.01</f>
-        <v>895.64779999999996</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="5"/>
-        <v>904.60427800000002</v>
-      </c>
-      <c r="H5" s="7">
-        <f>SUM(C5:F5)</f>
-        <v>3565.0320780000002</v>
-      </c>
-      <c r="I5" s="2">
-        <f>H5*1.03</f>
-        <v>3671.9830403400001</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" ref="J5:Q5" si="6">I5*1.03</f>
-        <v>3782.1425315502001</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="6"/>
-        <v>3895.6068074967061</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="6"/>
-        <v>4012.4750117216072</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="6"/>
-        <v>4132.8492620732559</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" si="6"/>
-        <v>4256.8347399354534</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" si="6"/>
-        <v>4384.5397821335173</v>
-      </c>
-      <c r="P5" s="2">
-        <f t="shared" si="6"/>
-        <v>4516.0759755975232</v>
-      </c>
-      <c r="Q5" s="2">
-        <f t="shared" si="6"/>
-        <v>4651.5582548654493</v>
-      </c>
-    </row>
-    <row r="6" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="4">
-        <f>SUM(C3:C5)</f>
-        <v>12043</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" ref="D6:F6" si="7">SUM(D3:D5)</f>
-        <v>12163.43</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="7"/>
-        <v>12285.0643</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="7"/>
-        <v>12407.914943000002</v>
-      </c>
-      <c r="H6" s="4">
-        <f>SUM(C6:F6)</f>
-        <v>48899.409243000002</v>
-      </c>
-      <c r="I6" s="4">
-        <f>SUM(I3:I5)</f>
-        <v>52158.205877579996</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" ref="J6:Q6" si="8">SUM(J3:J5)</f>
-        <v>55680.131926483802</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="8"/>
-        <v>59489.065186852051</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="8"/>
-        <v>63611.176075738018</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" si="8"/>
-        <v>68075.153153085848</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="8"/>
-        <v>72912.451049467621</v>
-      </c>
-      <c r="O6" s="4">
-        <f t="shared" si="8"/>
-        <v>78157.56303321397</v>
-      </c>
-      <c r="P6" s="4">
-        <f t="shared" si="8"/>
-        <v>83848.320674804883</v>
-      </c>
-      <c r="Q6" s="4">
-        <f t="shared" si="8"/>
-        <v>90026.22331193315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3873</v>
-      </c>
-      <c r="D7" s="2">
-        <f>C7*1.01</f>
-        <v>3911.73</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" ref="E7:F7" si="9">D7*1.01</f>
-        <v>3950.8472999999999</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="9"/>
-        <v>3990.3557729999998</v>
-      </c>
-      <c r="H7" s="7">
-        <f>SUM(C7:F7)</f>
-        <v>15725.933072999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4091</v>
-      </c>
-      <c r="D8" s="2">
-        <f>C8*1.01</f>
-        <v>4131.91</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8:F8" si="10">D8*1.01</f>
-        <v>4173.2290999999996</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="10"/>
-        <v>4214.9613909999998</v>
-      </c>
-      <c r="H8" s="7">
-        <f>SUM(C8:F8)</f>
-        <v>16611.100491000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2">
-        <v>846</v>
-      </c>
-      <c r="D9" s="2">
-        <f>C9*1.01</f>
-        <v>854.46</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" ref="E9:F9" si="11">D9*1.01</f>
-        <v>863.0046000000001</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="11"/>
-        <v>871.63464600000009</v>
-      </c>
-      <c r="H9" s="7">
-        <f>SUM(C9:F9)</f>
-        <v>3435.0992460000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2">
-        <v>917</v>
-      </c>
-      <c r="D10" s="2">
-        <f>C10*1.01</f>
-        <v>926.17</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" ref="E10:F10" si="12">D10*1.01</f>
-        <v>935.43169999999998</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="12"/>
-        <v>944.78601700000002</v>
-      </c>
-      <c r="H10" s="7">
-        <f>SUM(C10:F10)</f>
         <v>3723.3877170000001</v>
       </c>
     </row>
-    <row r="11" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2">
-        <f>SUM(C7:C10)</f>
+      <c r="C12" s="4">
+        <f>SUM(C8:C11)</f>
         <v>9727</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" ref="D11:H11" si="13">SUM(D7:D10)</f>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:H12" si="14">SUM(D8:D11)</f>
         <v>9824.2699999999986</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" si="13"/>
+      <c r="E12" s="4">
+        <f t="shared" si="14"/>
         <v>9922.5126999999993</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="13"/>
+      <c r="F12" s="4">
+        <f t="shared" si="14"/>
         <v>10021.737827000001</v>
       </c>
-      <c r="H11" s="2">
-        <f t="shared" si="13"/>
+      <c r="H12" s="4">
+        <f t="shared" si="14"/>
         <v>39495.520526999993</v>
       </c>
-      <c r="I11" s="2">
-        <f>I6*(1-I20)</f>
+      <c r="I12" s="4">
+        <f>I7*(1-I21)</f>
         <v>41726.564702064003</v>
       </c>
-      <c r="J11" s="2">
-        <f t="shared" ref="J11:Q11" si="14">J6*(1-J20)</f>
+      <c r="J12" s="4">
+        <f t="shared" ref="J12:Q12" si="15">J7*(1-J21)</f>
         <v>44544.105541187047</v>
       </c>
-      <c r="K11" s="2">
-        <f t="shared" si="14"/>
+      <c r="K12" s="4">
+        <f t="shared" si="15"/>
         <v>47591.252149481646</v>
       </c>
-      <c r="L11" s="2">
-        <f t="shared" si="14"/>
+      <c r="L12" s="4">
+        <f t="shared" si="15"/>
         <v>50888.940860590417</v>
       </c>
-      <c r="M11" s="2">
-        <f t="shared" si="14"/>
+      <c r="M12" s="4">
+        <f t="shared" si="15"/>
         <v>54460.122522468679</v>
       </c>
-      <c r="N11" s="2">
-        <f t="shared" si="14"/>
+      <c r="N12" s="4">
+        <f t="shared" si="15"/>
         <v>58329.960839574102</v>
       </c>
-      <c r="O11" s="2">
-        <f t="shared" si="14"/>
+      <c r="O12" s="4">
+        <f t="shared" si="15"/>
         <v>62526.050426571179</v>
       </c>
-      <c r="P11" s="2">
-        <f t="shared" si="14"/>
+      <c r="P12" s="4">
+        <f t="shared" si="15"/>
         <v>67078.656539843912</v>
       </c>
-      <c r="Q11" s="2">
-        <f t="shared" si="14"/>
+      <c r="Q12" s="4">
+        <f t="shared" si="15"/>
         <v>72020.978649546523</v>
       </c>
     </row>
-    <row r="12" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="2">
-        <f>C6-C11</f>
+      <c r="C13" s="4">
+        <f>C7-C12</f>
         <v>2316</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:H12" si="15">D6-D11</f>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:H13" si="16">D7-D12</f>
         <v>2339.1600000000017</v>
       </c>
-      <c r="E12" s="2">
-        <f t="shared" si="15"/>
+      <c r="E13" s="4">
+        <f t="shared" si="16"/>
         <v>2362.5516000000007</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="15"/>
+      <c r="F13" s="4">
+        <f t="shared" si="16"/>
         <v>2386.1771160000008</v>
       </c>
-      <c r="H12" s="2">
-        <f t="shared" si="15"/>
+      <c r="H13" s="4">
+        <f t="shared" si="16"/>
         <v>9403.8887160000086</v>
       </c>
-      <c r="I12" s="2">
-        <f t="shared" ref="I12" si="16">I6-I11</f>
+      <c r="I13" s="4">
+        <f t="shared" ref="I13" si="17">I7-I12</f>
         <v>10431.641175515993</v>
       </c>
-      <c r="J12" s="2">
-        <f t="shared" ref="J12" si="17">J6-J11</f>
+      <c r="J13" s="4">
+        <f t="shared" ref="J13" si="18">J7-J12</f>
         <v>11136.026385296755</v>
       </c>
-      <c r="K12" s="2">
-        <f t="shared" ref="K12" si="18">K6-K11</f>
+      <c r="K13" s="4">
+        <f t="shared" ref="K13" si="19">K7-K12</f>
         <v>11897.813037370404</v>
       </c>
-      <c r="L12" s="2">
-        <f t="shared" ref="L12" si="19">L6-L11</f>
+      <c r="L13" s="4">
+        <f t="shared" ref="L13" si="20">L7-L12</f>
         <v>12722.235215147601</v>
       </c>
-      <c r="M12" s="2">
-        <f t="shared" ref="M12" si="20">M6-M11</f>
+      <c r="M13" s="4">
+        <f t="shared" ref="M13" si="21">M7-M12</f>
         <v>13615.03063061717</v>
       </c>
-      <c r="N12" s="2">
-        <f t="shared" ref="N12" si="21">N6-N11</f>
+      <c r="N13" s="4">
+        <f t="shared" ref="N13" si="22">N7-N12</f>
         <v>14582.49020989352</v>
       </c>
-      <c r="O12" s="2">
-        <f t="shared" ref="O12" si="22">O6-O11</f>
+      <c r="O13" s="4">
+        <f t="shared" ref="O13" si="23">O7-O12</f>
         <v>15631.512606642791</v>
       </c>
-      <c r="P12" s="2">
-        <f t="shared" ref="P12" si="23">P6-P11</f>
+      <c r="P13" s="4">
+        <f t="shared" ref="P13" si="24">P7-P12</f>
         <v>16769.664134960971</v>
       </c>
-      <c r="Q12" s="2">
-        <f t="shared" ref="Q12" si="24">Q6-Q11</f>
+      <c r="Q13" s="4">
+        <f t="shared" ref="Q13" si="25">Q7-Q12</f>
         <v>18005.244662386627</v>
       </c>
     </row>
-    <row r="13" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="4">
         <v>476</v>
       </c>
-      <c r="D13" s="2">
-        <f>D12*D18</f>
+      <c r="D14" s="4">
+        <f>D13*D19</f>
         <v>491.22360000000032</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" ref="E13:F13" si="25">E12*E18</f>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:F14" si="26">E13*E19</f>
         <v>496.13583600000015</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="25"/>
+      <c r="F14" s="4">
+        <f t="shared" si="26"/>
         <v>501.09719436000012</v>
       </c>
-      <c r="H13" s="7">
-        <f>SUM(C13:F13)</f>
+      <c r="H14" s="4">
+        <f>SUM(C14:F14)</f>
         <v>1964.4566303600004</v>
       </c>
-      <c r="I13" s="2">
-        <f t="shared" ref="I13" si="26">I12*I18</f>
+      <c r="I14" s="4">
+        <f t="shared" ref="I14" si="27">I13*I19</f>
         <v>2190.6446468583586</v>
       </c>
-      <c r="J13" s="2">
-        <f t="shared" ref="J13" si="27">J12*J18</f>
+      <c r="J14" s="4">
+        <f t="shared" ref="J14" si="28">J13*J19</f>
         <v>2338.5655409123183</v>
       </c>
-      <c r="K13" s="2">
-        <f t="shared" ref="K13" si="28">K12*K18</f>
+      <c r="K14" s="4">
+        <f t="shared" ref="K14" si="29">K13*K19</f>
         <v>2498.5407378477848</v>
       </c>
-      <c r="L13" s="2">
-        <f t="shared" ref="L13" si="29">L12*L18</f>
+      <c r="L14" s="4">
+        <f t="shared" ref="L14" si="30">L13*L19</f>
         <v>2671.6693951809962</v>
       </c>
-      <c r="M13" s="2">
-        <f t="shared" ref="M13" si="30">M12*M18</f>
+      <c r="M14" s="4">
+        <f t="shared" ref="M14" si="31">M13*M19</f>
         <v>2859.1564324296055</v>
       </c>
-      <c r="N13" s="2">
-        <f t="shared" ref="N13" si="31">N12*N18</f>
+      <c r="N14" s="4">
+        <f t="shared" ref="N14" si="32">N13*N19</f>
         <v>3062.322944077639</v>
       </c>
-      <c r="O13" s="2">
-        <f t="shared" ref="O13" si="32">O12*O18</f>
+      <c r="O14" s="4">
+        <f t="shared" ref="O14" si="33">O13*O19</f>
         <v>3282.6176473949859</v>
       </c>
-      <c r="P13" s="2">
-        <f t="shared" ref="P13" si="33">P12*P18</f>
+      <c r="P14" s="4">
+        <f t="shared" ref="P14" si="34">P13*P19</f>
         <v>3521.6294683418037</v>
       </c>
-      <c r="Q13" s="2">
-        <f t="shared" ref="Q13" si="34">Q12*Q18</f>
+      <c r="Q14" s="4">
+        <f t="shared" ref="Q14" si="35">Q13*Q19</f>
         <v>3781.1013791011915</v>
       </c>
     </row>
-    <row r="14" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="1:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="4">
-        <f>C12-C13</f>
+      <c r="C15" s="8">
+        <f>C13-C14</f>
         <v>1840</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" ref="D14:H14" si="35">D12-D13</f>
+      <c r="D15" s="8">
+        <f t="shared" ref="D15:H15" si="36">D13-D14</f>
         <v>1847.9364000000014</v>
       </c>
-      <c r="E14" s="4">
-        <f t="shared" si="35"/>
+      <c r="E15" s="8">
+        <f t="shared" si="36"/>
         <v>1866.4157640000005</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="35"/>
+      <c r="F15" s="8">
+        <f t="shared" si="36"/>
         <v>1885.0799216400005</v>
       </c>
-      <c r="H14" s="4">
-        <f t="shared" si="35"/>
+      <c r="H15" s="8">
+        <f t="shared" si="36"/>
         <v>7439.4320856400082</v>
       </c>
-      <c r="I14" s="4">
-        <f t="shared" ref="I14" si="36">I12-I13</f>
+      <c r="I15" s="8">
+        <f t="shared" ref="I15" si="37">I13-I14</f>
         <v>8240.9965286576353</v>
       </c>
-      <c r="J14" s="4">
-        <f t="shared" ref="J14" si="37">J12-J13</f>
+      <c r="J15" s="8">
+        <f t="shared" ref="J15" si="38">J13-J14</f>
         <v>8797.4608443844372</v>
       </c>
-      <c r="K14" s="4">
-        <f t="shared" ref="K14" si="38">K12-K13</f>
+      <c r="K15" s="8">
+        <f t="shared" ref="K15" si="39">K13-K14</f>
         <v>9399.2722995226195</v>
       </c>
-      <c r="L14" s="4">
-        <f t="shared" ref="L14" si="39">L12-L13</f>
+      <c r="L15" s="8">
+        <f t="shared" ref="L15" si="40">L13-L14</f>
         <v>10050.565819966605</v>
       </c>
-      <c r="M14" s="4">
-        <f t="shared" ref="M14" si="40">M12-M13</f>
+      <c r="M15" s="8">
+        <f t="shared" ref="M15" si="41">M13-M14</f>
         <v>10755.874198187565</v>
       </c>
-      <c r="N14" s="4">
-        <f t="shared" ref="N14" si="41">N12-N13</f>
+      <c r="N15" s="8">
+        <f t="shared" ref="N15" si="42">N13-N14</f>
         <v>11520.16726581588</v>
       </c>
-      <c r="O14" s="4">
-        <f t="shared" ref="O14" si="42">O12-O13</f>
+      <c r="O15" s="8">
+        <f t="shared" ref="O15" si="43">O13-O14</f>
         <v>12348.894959247806</v>
       </c>
-      <c r="P14" s="4">
-        <f t="shared" ref="P14" si="43">P12-P13</f>
+      <c r="P15" s="8">
+        <f t="shared" ref="P15" si="44">P13-P14</f>
         <v>13248.034666619167</v>
       </c>
-      <c r="Q14" s="4">
-        <f t="shared" ref="Q14" si="44">Q12-Q13</f>
+      <c r="Q15" s="8">
+        <f t="shared" ref="Q15" si="45">Q13-Q14</f>
         <v>14224.143283285435</v>
       </c>
-      <c r="R14" s="4">
-        <f>Q14*(1+$T$16)</f>
+      <c r="R15" s="8">
+        <f>Q15*(1+$T$17)</f>
         <v>14366.384716118289</v>
       </c>
-      <c r="S14" s="4">
-        <f t="shared" ref="S14:CD14" si="45">R14*(1+$T$16)</f>
+      <c r="S15" s="8">
+        <f t="shared" ref="S15:CD15" si="46">R15*(1+$T$17)</f>
         <v>14510.048563279472</v>
       </c>
-      <c r="T14" s="4">
-        <f t="shared" si="45"/>
+      <c r="T15" s="8">
+        <f t="shared" si="46"/>
         <v>14655.149048912266</v>
       </c>
-      <c r="U14" s="4">
-        <f t="shared" si="45"/>
+      <c r="U15" s="8">
+        <f t="shared" si="46"/>
         <v>14801.700539401389</v>
       </c>
-      <c r="V14" s="4">
-        <f t="shared" si="45"/>
+      <c r="V15" s="8">
+        <f t="shared" si="46"/>
         <v>14949.717544795403</v>
       </c>
-      <c r="W14" s="4">
-        <f t="shared" si="45"/>
+      <c r="W15" s="8">
+        <f t="shared" si="46"/>
         <v>15099.214720243357</v>
       </c>
-      <c r="X14" s="4">
-        <f t="shared" si="45"/>
+      <c r="X15" s="8">
+        <f t="shared" si="46"/>
         <v>15250.206867445791</v>
       </c>
-      <c r="Y14" s="4">
-        <f t="shared" si="45"/>
+      <c r="Y15" s="8">
+        <f t="shared" si="46"/>
         <v>15402.708936120249</v>
       </c>
-      <c r="Z14" s="4">
-        <f t="shared" si="45"/>
+      <c r="Z15" s="8">
+        <f t="shared" si="46"/>
         <v>15556.736025481452</v>
       </c>
-      <c r="AA14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AA15" s="8">
+        <f t="shared" si="46"/>
         <v>15712.303385736266</v>
       </c>
-      <c r="AB14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AB15" s="8">
+        <f t="shared" si="46"/>
         <v>15869.426419593628</v>
       </c>
-      <c r="AC14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AC15" s="8">
+        <f t="shared" si="46"/>
         <v>16028.120683789564</v>
       </c>
-      <c r="AD14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AD15" s="8">
+        <f t="shared" si="46"/>
         <v>16188.40189062746</v>
       </c>
-      <c r="AE14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AE15" s="8">
+        <f t="shared" si="46"/>
         <v>16350.285909533734</v>
       </c>
-      <c r="AF14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AF15" s="8">
+        <f t="shared" si="46"/>
         <v>16513.788768629071</v>
       </c>
-      <c r="AG14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AG15" s="8">
+        <f t="shared" si="46"/>
         <v>16678.926656315361</v>
       </c>
-      <c r="AH14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AH15" s="8">
+        <f t="shared" si="46"/>
         <v>16845.715922878517</v>
       </c>
-      <c r="AI14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AI15" s="8">
+        <f t="shared" si="46"/>
         <v>17014.173082107303</v>
       </c>
-      <c r="AJ14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AJ15" s="8">
+        <f t="shared" si="46"/>
         <v>17184.314812928376</v>
       </c>
-      <c r="AK14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AK15" s="8">
+        <f t="shared" si="46"/>
         <v>17356.157961057659</v>
       </c>
-      <c r="AL14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AL15" s="8">
+        <f t="shared" si="46"/>
         <v>17529.719540668237</v>
       </c>
-      <c r="AM14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AM15" s="8">
+        <f t="shared" si="46"/>
         <v>17705.016736074918</v>
       </c>
-      <c r="AN14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AN15" s="8">
+        <f t="shared" si="46"/>
         <v>17882.066903435669</v>
       </c>
-      <c r="AO14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AO15" s="8">
+        <f t="shared" si="46"/>
         <v>18060.887572470026</v>
       </c>
-      <c r="AP14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AP15" s="8">
+        <f t="shared" si="46"/>
         <v>18241.496448194728</v>
       </c>
-      <c r="AQ14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AQ15" s="8">
+        <f t="shared" si="46"/>
         <v>18423.911412676676</v>
       </c>
-      <c r="AR14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AR15" s="8">
+        <f t="shared" si="46"/>
         <v>18608.150526803442</v>
       </c>
-      <c r="AS14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AS15" s="8">
+        <f t="shared" si="46"/>
         <v>18794.232032071475</v>
       </c>
-      <c r="AT14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AT15" s="8">
+        <f t="shared" si="46"/>
         <v>18982.17435239219</v>
       </c>
-      <c r="AU14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AU15" s="8">
+        <f t="shared" si="46"/>
         <v>19171.996095916111</v>
       </c>
-      <c r="AV14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AV15" s="8">
+        <f t="shared" si="46"/>
         <v>19363.716056875273</v>
       </c>
-      <c r="AW14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AW15" s="8">
+        <f t="shared" si="46"/>
         <v>19557.353217444026</v>
       </c>
-      <c r="AX14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AX15" s="8">
+        <f t="shared" si="46"/>
         <v>19752.926749618466</v>
       </c>
-      <c r="AY14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AY15" s="8">
+        <f t="shared" si="46"/>
         <v>19950.456017114651</v>
       </c>
-      <c r="AZ14" s="4">
-        <f t="shared" si="45"/>
+      <c r="AZ15" s="8">
+        <f t="shared" si="46"/>
         <v>20149.960577285798</v>
       </c>
-      <c r="BA14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BA15" s="8">
+        <f t="shared" si="46"/>
         <v>20351.460183058654</v>
       </c>
-      <c r="BB14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BB15" s="8">
+        <f t="shared" si="46"/>
         <v>20554.97478488924</v>
       </c>
-      <c r="BC14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BC15" s="8">
+        <f t="shared" si="46"/>
         <v>20760.524532738134</v>
       </c>
-      <c r="BD14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BD15" s="8">
+        <f t="shared" si="46"/>
         <v>20968.129778065515</v>
       </c>
-      <c r="BE14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BE15" s="8">
+        <f t="shared" si="46"/>
         <v>21177.81107584617</v>
       </c>
-      <c r="BF14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BF15" s="8">
+        <f t="shared" si="46"/>
         <v>21389.589186604633</v>
       </c>
-      <c r="BG14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BG15" s="8">
+        <f t="shared" si="46"/>
         <v>21603.48507847068</v>
       </c>
-      <c r="BH14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BH15" s="8">
+        <f t="shared" si="46"/>
         <v>21819.519929255388</v>
       </c>
-      <c r="BI14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BI15" s="8">
+        <f t="shared" si="46"/>
         <v>22037.715128547941</v>
       </c>
-      <c r="BJ14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BJ15" s="8">
+        <f t="shared" si="46"/>
         <v>22258.092279833421</v>
       </c>
-      <c r="BK14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BK15" s="8">
+        <f t="shared" si="46"/>
         <v>22480.673202631755</v>
       </c>
-      <c r="BL14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BL15" s="8">
+        <f t="shared" si="46"/>
         <v>22705.479934658073</v>
       </c>
-      <c r="BM14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BM15" s="8">
+        <f t="shared" si="46"/>
         <v>22932.534734004654</v>
       </c>
-      <c r="BN14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BN15" s="8">
+        <f t="shared" si="46"/>
         <v>23161.860081344701</v>
       </c>
-      <c r="BO14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BO15" s="8">
+        <f t="shared" si="46"/>
         <v>23393.478682158147</v>
       </c>
-      <c r="BP14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BP15" s="8">
+        <f t="shared" si="46"/>
         <v>23627.413468979728</v>
       </c>
-      <c r="BQ14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BQ15" s="8">
+        <f t="shared" si="46"/>
         <v>23863.687603669525</v>
       </c>
-      <c r="BR14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BR15" s="8">
+        <f t="shared" si="46"/>
         <v>24102.324479706222</v>
       </c>
-      <c r="BS14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BS15" s="8">
+        <f t="shared" si="46"/>
         <v>24343.347724503285</v>
       </c>
-      <c r="BT14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BT15" s="8">
+        <f t="shared" si="46"/>
         <v>24586.781201748319</v>
       </c>
-      <c r="BU14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BU15" s="8">
+        <f t="shared" si="46"/>
         <v>24832.649013765804</v>
       </c>
-      <c r="BV14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BV15" s="8">
+        <f t="shared" si="46"/>
         <v>25080.975503903461</v>
       </c>
-      <c r="BW14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BW15" s="8">
+        <f t="shared" si="46"/>
         <v>25331.785258942495</v>
       </c>
-      <c r="BX14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BX15" s="8">
+        <f t="shared" si="46"/>
         <v>25585.10311153192</v>
       </c>
-      <c r="BY14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BY15" s="8">
+        <f t="shared" si="46"/>
         <v>25840.954142647239</v>
       </c>
-      <c r="BZ14" s="4">
-        <f t="shared" si="45"/>
+      <c r="BZ15" s="8">
+        <f t="shared" si="46"/>
         <v>26099.363684073713</v>
       </c>
-      <c r="CA14" s="4">
-        <f t="shared" si="45"/>
+      <c r="CA15" s="8">
+        <f t="shared" si="46"/>
         <v>26360.357320914449</v>
       </c>
-      <c r="CB14" s="4">
-        <f t="shared" si="45"/>
+      <c r="CB15" s="8">
+        <f t="shared" si="46"/>
         <v>26623.960894123593</v>
       </c>
-      <c r="CC14" s="4">
-        <f t="shared" si="45"/>
+      <c r="CC15" s="8">
+        <f t="shared" si="46"/>
         <v>26890.200503064829</v>
       </c>
-      <c r="CD14" s="4">
-        <f t="shared" si="45"/>
+      <c r="CD15" s="8">
+        <f t="shared" si="46"/>
         <v>27159.102508095479</v>
       </c>
-      <c r="CE14" s="4">
-        <f t="shared" ref="CE14:DL14" si="46">CD14*(1+$T$16)</f>
+      <c r="CE15" s="8">
+        <f t="shared" ref="CE15:DL15" si="47">CD15*(1+$T$17)</f>
         <v>27430.693533176433</v>
       </c>
-      <c r="CF14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CF15" s="8">
+        <f t="shared" si="47"/>
         <v>27705.000468508199</v>
       </c>
-      <c r="CG14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CG15" s="8">
+        <f t="shared" si="47"/>
         <v>27982.050473193282</v>
       </c>
-      <c r="CH14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CH15" s="8">
+        <f t="shared" si="47"/>
         <v>28261.870977925213</v>
       </c>
-      <c r="CI14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CI15" s="8">
+        <f t="shared" si="47"/>
         <v>28544.489687704467</v>
       </c>
-      <c r="CJ14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CJ15" s="8">
+        <f t="shared" si="47"/>
         <v>28829.934584581511</v>
       </c>
-      <c r="CK14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CK15" s="8">
+        <f t="shared" si="47"/>
         <v>29118.233930427326</v>
       </c>
-      <c r="CL14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CL15" s="8">
+        <f t="shared" si="47"/>
         <v>29409.416269731599</v>
       </c>
-      <c r="CM14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CM15" s="8">
+        <f t="shared" si="47"/>
         <v>29703.510432428913</v>
       </c>
-      <c r="CN14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CN15" s="8">
+        <f t="shared" si="47"/>
         <v>30000.545536753201</v>
       </c>
-      <c r="CO14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CO15" s="8">
+        <f t="shared" si="47"/>
         <v>30300.550992120734</v>
       </c>
-      <c r="CP14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CP15" s="8">
+        <f t="shared" si="47"/>
         <v>30603.556502041942</v>
       </c>
-      <c r="CQ14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CQ15" s="8">
+        <f t="shared" si="47"/>
         <v>30909.59206706236</v>
       </c>
-      <c r="CR14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CR15" s="8">
+        <f t="shared" si="47"/>
         <v>31218.687987732985</v>
       </c>
-      <c r="CS14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CS15" s="8">
+        <f t="shared" si="47"/>
         <v>31530.874867610313</v>
       </c>
-      <c r="CT14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CT15" s="8">
+        <f t="shared" si="47"/>
         <v>31846.183616286417</v>
       </c>
-      <c r="CU14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CU15" s="8">
+        <f t="shared" si="47"/>
         <v>32164.64545244928</v>
       </c>
-      <c r="CV14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CV15" s="8">
+        <f t="shared" si="47"/>
         <v>32486.291906973773</v>
       </c>
-      <c r="CW14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CW15" s="8">
+        <f t="shared" si="47"/>
         <v>32811.154826043508</v>
       </c>
-      <c r="CX14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CX15" s="8">
+        <f t="shared" si="47"/>
         <v>33139.266374303945</v>
       </c>
-      <c r="CY14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CY15" s="8">
+        <f t="shared" si="47"/>
         <v>33470.659038046986</v>
       </c>
-      <c r="CZ14" s="4">
-        <f t="shared" si="46"/>
+      <c r="CZ15" s="8">
+        <f t="shared" si="47"/>
         <v>33805.365628427455</v>
       </c>
-      <c r="DA14" s="4">
-        <f t="shared" si="46"/>
+      <c r="DA15" s="8">
+        <f t="shared" si="47"/>
         <v>34143.41928471173</v>
       </c>
-      <c r="DB14" s="4">
-        <f t="shared" si="46"/>
+      <c r="DB15" s="8">
+        <f t="shared" si="47"/>
         <v>34484.853477558849</v>
       </c>
-      <c r="DC14" s="4">
-        <f t="shared" si="46"/>
+      <c r="DC15" s="8">
+        <f t="shared" si="47"/>
         <v>34829.702012334441</v>
       </c>
-      <c r="DD14" s="4">
-        <f t="shared" si="46"/>
+      <c r="DD15" s="8">
+        <f t="shared" si="47"/>
         <v>35177.999032457788</v>
       </c>
-      <c r="DE14" s="4">
-        <f t="shared" si="46"/>
+      <c r="DE15" s="8">
+        <f t="shared" si="47"/>
         <v>35529.779022782364</v>
       </c>
-      <c r="DF14" s="4">
-        <f t="shared" si="46"/>
+      <c r="DF15" s="8">
+        <f t="shared" si="47"/>
         <v>35885.076813010186</v>
       </c>
-      <c r="DG14" s="4">
-        <f t="shared" si="46"/>
+      <c r="DG15" s="8">
+        <f t="shared" si="47"/>
         <v>36243.927581140291</v>
       </c>
-      <c r="DH14" s="4">
-        <f t="shared" si="46"/>
+      <c r="DH15" s="8">
+        <f t="shared" si="47"/>
         <v>36606.366856951696</v>
       </c>
-      <c r="DI14" s="4">
-        <f t="shared" si="46"/>
+      <c r="DI15" s="8">
+        <f t="shared" si="47"/>
         <v>36972.430525521217</v>
       </c>
-      <c r="DJ14" s="4">
-        <f t="shared" si="46"/>
+      <c r="DJ15" s="8">
+        <f t="shared" si="47"/>
         <v>37342.154830776431</v>
       </c>
-      <c r="DK14" s="4">
-        <f t="shared" si="46"/>
+      <c r="DK15" s="8">
+        <f t="shared" si="47"/>
         <v>37715.576379084196</v>
       </c>
-      <c r="DL14" s="4">
-        <f t="shared" si="46"/>
+      <c r="DL15" s="8">
+        <f t="shared" si="47"/>
         <v>38092.732142875037</v>
       </c>
     </row>
-    <row r="15" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="8">
-        <f>I6/H6-1</f>
+      <c r="I17" s="9">
+        <f>I7/H7-1</f>
         <v>6.6642863073984815E-2</v>
       </c>
-      <c r="J16" s="8">
-        <f t="shared" ref="J16:Q16" si="47">J6/I6-1</f>
+      <c r="J17" s="9">
+        <f t="shared" ref="J17:Q17" si="48">J7/I7-1</f>
         <v>6.7523910948357413E-2</v>
       </c>
-      <c r="K16" s="8">
-        <f t="shared" si="47"/>
+      <c r="K17" s="9">
+        <f t="shared" si="48"/>
         <v>6.8407403656968624E-2</v>
       </c>
-      <c r="L16" s="8">
-        <f t="shared" si="47"/>
+      <c r="L17" s="9">
+        <f t="shared" si="48"/>
         <v>6.9291908957362702E-2</v>
       </c>
-      <c r="M16" s="8">
-        <f t="shared" si="47"/>
+      <c r="M17" s="9">
+        <f t="shared" si="48"/>
         <v>7.0175987188679567E-2</v>
       </c>
-      <c r="N16" s="8">
-        <f t="shared" si="47"/>
+      <c r="N17" s="9">
+        <f t="shared" si="48"/>
         <v>7.1058200713904673E-2</v>
       </c>
-      <c r="O16" s="8">
-        <f t="shared" si="47"/>
+      <c r="O17" s="9">
+        <f t="shared" si="48"/>
         <v>7.1937123334227193E-2</v>
       </c>
-      <c r="P16" s="8">
-        <f t="shared" si="47"/>
+      <c r="P17" s="9">
+        <f t="shared" si="48"/>
         <v>7.2811349544925852E-2</v>
       </c>
-      <c r="Q16" s="8">
-        <f t="shared" si="47"/>
+      <c r="Q17" s="9">
+        <f t="shared" si="48"/>
         <v>7.3679503505961419E-2</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="10">
+      <c r="T17" s="10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="7" t="s">
+    <row r="18" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="8">
-        <f>D6/C6-1</f>
+      <c r="D18" s="9">
+        <f>D7/C7-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="E17" s="8">
-        <f t="shared" ref="E17:F17" si="48">E6/D6-1</f>
+      <c r="E18" s="9">
+        <f t="shared" ref="E18:F18" si="49">E7/D7-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="F17" s="8">
-        <f t="shared" si="48"/>
+      <c r="F18" s="9">
+        <f t="shared" si="49"/>
         <v>1.0000000000000231E-2</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="S18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T17" s="10">
+      <c r="T18" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="7" t="s">
+    <row r="19" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="9">
-        <f>C13/C12</f>
+      <c r="C19" s="11">
+        <f>C14/C13</f>
         <v>0.20552677029360966</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="11">
         <v>0.21</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="11">
         <v>0.21</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="11">
         <v>0.21</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9">
-        <f>H13/H12</f>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
+        <f>H14/H13</f>
         <v>0.20889832809459191</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I19" s="11">
         <v>0.21</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J19" s="11">
         <v>0.21</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K19" s="11">
         <v>0.21</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L19" s="11">
         <v>0.21</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M19" s="11">
         <v>0.21</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N19" s="11">
         <v>0.21</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O19" s="11">
         <v>0.21</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P19" s="11">
         <v>0.21</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q19" s="11">
         <v>0.21</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="S19" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="T18" s="4">
-        <f>NPV(T17,H14:DL14)+C61</f>
+      <c r="T19" s="8">
+        <f>NPV(T18,H15:DL15)+C62</f>
         <v>792613.88653164415</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-    </row>
-    <row r="20" spans="1:20" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="9">
-        <f>C12/C6</f>
+    <row r="20" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11">
+        <f>C13/C7</f>
         <v>0.1923108859918625</v>
       </c>
-      <c r="D20" s="9">
-        <f t="shared" ref="D20:Q20" si="49">D12/D6</f>
+      <c r="D21" s="11">
+        <f t="shared" ref="D21:H21" si="50">D13/D7</f>
         <v>0.19231088599186263</v>
       </c>
-      <c r="E20" s="9">
-        <f t="shared" si="49"/>
+      <c r="E21" s="11">
+        <f t="shared" si="50"/>
         <v>0.19231088599186255</v>
       </c>
-      <c r="F20" s="9">
-        <f t="shared" si="49"/>
+      <c r="F21" s="11">
+        <f t="shared" si="50"/>
         <v>0.19231088599186252</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9">
-        <f t="shared" si="49"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11">
+        <f t="shared" si="50"/>
         <v>0.19231088599186266</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I21" s="11">
         <v>0.2</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J21" s="11">
         <v>0.2</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K21" s="11">
         <v>0.2</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L21" s="11">
         <v>0.2</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M21" s="11">
         <v>0.2</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N21" s="11">
         <v>0.2</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O21" s="11">
         <v>0.2</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P21" s="11">
         <v>0.2</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q21" s="11">
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="T22" s="3">
-        <f>Main!$F$4/Model!T18</f>
-        <v>1.3717894405785067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+      <c r="T23" s="3">
+        <f>Main!$O$4/Model!T19</f>
+        <v>1.3336841783402149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="4">
         <v>36892</v>
       </c>
-      <c r="T23" s="2">
-        <f>T18*0.7</f>
-        <v>554829.72057215089</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="4">
         <v>305501</v>
       </c>
-      <c r="S24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T24" s="2">
-        <f>T18/Main!F3</f>
+      <c r="S25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="T25" s="4">
+        <f>T19/Main!O3</f>
         <v>367.4033237837541</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="4">
         <f>15035+263735</f>
         <v>278770</v>
       </c>
-      <c r="S25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T25" s="2">
-        <f>T23/Main!F3</f>
-        <v>257.18232664862785</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="4">
         <v>31144</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="4">
         <v>28131</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="4">
         <v>47401</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="4">
         <v>24034</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="4">
         <v>30215</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="4">
         <v>17984</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="4">
         <v>56974</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C34" s="4">
         <v>34331</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="4">
         <v>8628</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C36" s="4">
         <v>25291</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="4">
         <v>5288</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C39" s="4">
         <v>4291</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C40" s="4">
         <v>176559</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C41" s="4">
         <v>27033</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="4">
         <v>5299</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="4">
         <v>20766</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4" t="s">
+    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="4">
-        <f>SUM(C22:C42)</f>
+      <c r="C44" s="8">
+        <f>SUM(C23:C43)</f>
         <v>1164532</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C47" s="4">
         <f>117123+31974</f>
         <v>149097</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C48" s="4">
         <v>32306</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C49" s="4">
         <v>17734</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C50" s="4">
         <v>10782</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C51" s="4">
         <v>37090</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C52" s="4">
         <v>14380</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C53" s="4">
         <v>9509</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C54" s="4">
         <v>44461</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C56" s="4">
         <v>17916</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C57" s="4">
         <v>7047</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C58" s="4">
         <v>81466</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="4" t="s">
+    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="4">
-        <f>SUM(C46:C57)</f>
+      <c r="C59" s="8">
+        <f>SUM(C47:C58)</f>
         <v>421788</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="2">
-        <f>C43-C58</f>
+      <c r="C61" s="4">
+        <f>C44-C59</f>
         <v>742744</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="2">
-        <f>C60-C40-SUM(C32:C34)</f>
+      <c r="C62" s="4">
+        <f>C61-C41-SUM(C33:C35)</f>
         <v>615778</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="3">
-        <f>Main!$F$4/Model!C60</f>
-        <v>1.463895177880939</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="3">
+        <f>Main!$O$4/Model!C61</f>
+        <v>1.4232314229398018</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="3">
-        <f>Main!$F$4/Model!C61</f>
-        <v>1.7657327153617053</v>
+      <c r="C65" s="3">
+        <f>Main!$O$4/Model!C62</f>
+        <v>1.7166845843794356</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{4D0467D7-1FC5-477E-AE6E-D78928C4462A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BRKB.xlsx
+++ b/BRKB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF66CB4-E8F0-41BC-AFC8-D052FE32AF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD206CCC-6A63-4B66-82DB-9C681B6CEF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="315" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{5D77292D-10E0-4CAF-8203-C26E2893D99A}"/>
+    <workbookView xWindow="5565" yWindow="960" windowWidth="20805" windowHeight="14520" activeTab="1" xr2:uid="{5D77292D-10E0-4CAF-8203-C26E2893D99A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>BRKB</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Revenue</t>
   </si>
   <si>
-    <t>Tax Rate</t>
-  </si>
-  <si>
     <t>Revenue y/y</t>
   </si>
   <si>
@@ -222,12 +219,6 @@
     <t>NPV</t>
   </si>
   <si>
-    <t>P/TB+Rev</t>
-  </si>
-  <si>
-    <t>Fair Price</t>
-  </si>
-  <si>
     <t>Operating Margin</t>
   </si>
   <si>
@@ -238,15 +229,24 @@
   </si>
   <si>
     <t>Q425</t>
+  </si>
+  <si>
+    <t>Share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -306,21 +306,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95191B4-465A-4E56-8979-BEAA8845F5E5}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -683,14 +683,14 @@
         <v>1</v>
       </c>
       <c r="M2" s="3">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="N2" s="3">
         <v>735920</v>
       </c>
       <c r="O2" s="3">
         <f>M2</f>
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -721,7 +721,7 @@
       </c>
       <c r="M4" s="4">
         <f>M3*M2</f>
-        <v>657991.6</v>
+        <v>640534.67999999993</v>
       </c>
       <c r="N4" s="4">
         <f>N3*N2</f>
@@ -729,7 +729,7 @@
       </c>
       <c r="O4" s="4">
         <f>O3*O2</f>
-        <v>1057096.6000000001</v>
+        <v>1029051.18</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -767,13 +767,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0951F0D-51FB-4516-80C8-99A1050AEC8B}">
-  <dimension ref="A1:DL65"/>
+  <dimension ref="A1:DL64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
+      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -793,13 +793,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H2" s="6">
         <v>2025</v>
@@ -1135,6 +1135,12 @@
         <f t="shared" si="2"/>
         <v>16611.100491000001</v>
       </c>
+      <c r="S9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="10" spans="1:116" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
@@ -1159,6 +1165,12 @@
         <f t="shared" si="2"/>
         <v>3435.0992460000002</v>
       </c>
+      <c r="S10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:116" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
@@ -1183,6 +1195,13 @@
         <f t="shared" si="2"/>
         <v>3723.3877170000001</v>
       </c>
+      <c r="S11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T11" s="8">
+        <f>NPV(T10,I15:DL15)+C60</f>
+        <v>946800.6440088253</v>
+      </c>
     </row>
     <row r="12" spans="1:116" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
@@ -1209,40 +1228,47 @@
         <v>39495.520526999993</v>
       </c>
       <c r="I12" s="4">
-        <f>I7*(1-I21)</f>
+        <f>I7*(1-I20)</f>
         <v>41726.564702064003</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" ref="J12:Q12" si="15">J7*(1-J21)</f>
+        <f>J7*(1-J20)</f>
         <v>44544.105541187047</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="15"/>
+        <f>K7*(1-K20)</f>
         <v>47591.252149481646</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="15"/>
+        <f>L7*(1-L20)</f>
         <v>50888.940860590417</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="15"/>
+        <f>M7*(1-M20)</f>
         <v>54460.122522468679</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="15"/>
+        <f>N7*(1-N20)</f>
         <v>58329.960839574102</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="15"/>
+        <f>O7*(1-O20)</f>
         <v>62526.050426571179</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="15"/>
+        <f>P7*(1-P20)</f>
         <v>67078.656539843912</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="15"/>
+        <f>Q7*(1-Q20)</f>
         <v>72020.978649546523</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="3">
+        <f>T11/Main!O3</f>
+        <v>438.87409680848879</v>
       </c>
     </row>
     <row r="13" spans="1:116" x14ac:dyDescent="0.2">
@@ -1254,55 +1280,55 @@
         <v>2316</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ref="D13:H13" si="16">D7-D12</f>
+        <f t="shared" ref="D13:H13" si="15">D7-D12</f>
         <v>2339.1600000000017</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2362.5516000000007</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2386.1771160000008</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>9403.8887160000086</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" ref="I13" si="17">I7-I12</f>
+        <f t="shared" ref="I13" si="16">I7-I12</f>
         <v>10431.641175515993</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" ref="J13" si="18">J7-J12</f>
+        <f t="shared" ref="J13" si="17">J7-J12</f>
         <v>11136.026385296755</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" ref="K13" si="19">K7-K12</f>
+        <f t="shared" ref="K13" si="18">K7-K12</f>
         <v>11897.813037370404</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" ref="L13" si="20">L7-L12</f>
+        <f t="shared" ref="L13" si="19">L7-L12</f>
         <v>12722.235215147601</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" ref="M13" si="21">M7-M12</f>
+        <f t="shared" ref="M13" si="20">M7-M12</f>
         <v>13615.03063061717</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" ref="N13" si="22">N7-N12</f>
+        <f t="shared" ref="N13" si="21">N7-N12</f>
         <v>14582.49020989352</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" ref="O13" si="23">O7-O12</f>
+        <f t="shared" ref="O13" si="22">O7-O12</f>
         <v>15631.512606642791</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" ref="P13" si="24">P7-P12</f>
+        <f t="shared" ref="P13" si="23">P7-P12</f>
         <v>16769.664134960971</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" ref="Q13" si="25">Q7-Q12</f>
+        <f t="shared" ref="Q13" si="24">Q7-Q12</f>
         <v>18005.244662386627</v>
       </c>
     </row>
@@ -1313,57 +1339,57 @@
       <c r="C14" s="4">
         <v>476</v>
       </c>
-      <c r="D14" s="4">
-        <f>D13*D19</f>
-        <v>491.22360000000032</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" ref="E14:F14" si="26">E13*E19</f>
-        <v>496.13583600000015</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="26"/>
-        <v>501.09719436000012</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="D14" s="4" t="e">
+        <f>D13*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="4" t="e">
+        <f>E13*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="4" t="e">
+        <f>F13*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="4" t="e">
         <f>SUM(C14:F14)</f>
-        <v>1964.4566303600004</v>
+        <v>#REF!</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" ref="I14" si="27">I13*I19</f>
-        <v>2190.6446468583586</v>
+        <f>I13*0.19</f>
+        <v>1982.0118233480387</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" ref="J14" si="28">J13*J19</f>
-        <v>2338.5655409123183</v>
+        <f t="shared" ref="J14:Q14" si="25">J13*0.19</f>
+        <v>2115.8450132063836</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" ref="K14" si="29">K13*K19</f>
-        <v>2498.5407378477848</v>
+        <f t="shared" si="25"/>
+        <v>2260.5844771003767</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" ref="L14" si="30">L13*L19</f>
-        <v>2671.6693951809962</v>
+        <f t="shared" si="25"/>
+        <v>2417.2246908780444</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" ref="M14" si="31">M13*M19</f>
-        <v>2859.1564324296055</v>
+        <f t="shared" si="25"/>
+        <v>2586.8558198172623</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" ref="N14" si="32">N13*N19</f>
-        <v>3062.322944077639</v>
+        <f t="shared" si="25"/>
+        <v>2770.6731398797688</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" ref="O14" si="33">O13*O19</f>
-        <v>3282.6176473949859</v>
+        <f t="shared" si="25"/>
+        <v>2969.9873952621301</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" ref="P14" si="34">P13*P19</f>
-        <v>3521.6294683418037</v>
+        <f t="shared" si="25"/>
+        <v>3186.2361856425846</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" ref="Q14" si="35">Q13*Q19</f>
-        <v>3781.1013791011915</v>
+        <f t="shared" si="25"/>
+        <v>3420.996485853459</v>
       </c>
     </row>
     <row r="15" spans="1:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1375,453 +1401,453 @@
         <f>C13-C14</f>
         <v>1840</v>
       </c>
-      <c r="D15" s="8">
-        <f t="shared" ref="D15:H15" si="36">D13-D14</f>
-        <v>1847.9364000000014</v>
-      </c>
-      <c r="E15" s="8">
-        <f t="shared" si="36"/>
-        <v>1866.4157640000005</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="36"/>
-        <v>1885.0799216400005</v>
-      </c>
-      <c r="H15" s="8">
-        <f t="shared" si="36"/>
-        <v>7439.4320856400082</v>
+      <c r="D15" s="8" t="e">
+        <f t="shared" ref="D15:H15" si="26">D13-D14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E15" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F15" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#REF!</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" ref="I15" si="37">I13-I14</f>
-        <v>8240.9965286576353</v>
+        <f t="shared" ref="I15" si="27">I13-I14</f>
+        <v>8449.6293521679545</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" ref="J15" si="38">J13-J14</f>
-        <v>8797.4608443844372</v>
+        <f t="shared" ref="J15" si="28">J13-J14</f>
+        <v>9020.1813720903701</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" ref="K15" si="39">K13-K14</f>
-        <v>9399.2722995226195</v>
+        <f t="shared" ref="K15" si="29">K13-K14</f>
+        <v>9637.2285602700285</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" ref="L15" si="40">L13-L14</f>
-        <v>10050.565819966605</v>
+        <f t="shared" ref="L15" si="30">L13-L14</f>
+        <v>10305.010524269557</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" ref="M15" si="41">M13-M14</f>
-        <v>10755.874198187565</v>
+        <f t="shared" ref="M15" si="31">M13-M14</f>
+        <v>11028.174810799908</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" ref="N15" si="42">N13-N14</f>
-        <v>11520.16726581588</v>
+        <f t="shared" ref="N15" si="32">N13-N14</f>
+        <v>11811.817070013751</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" ref="O15" si="43">O13-O14</f>
-        <v>12348.894959247806</v>
+        <f t="shared" ref="O15" si="33">O13-O14</f>
+        <v>12661.52521138066</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" ref="P15" si="44">P13-P14</f>
-        <v>13248.034666619167</v>
+        <f t="shared" ref="P15" si="34">P13-P14</f>
+        <v>13583.427949318386</v>
       </c>
       <c r="Q15" s="8">
-        <f t="shared" ref="Q15" si="45">Q13-Q14</f>
-        <v>14224.143283285435</v>
+        <f t="shared" ref="Q15" si="35">Q13-Q14</f>
+        <v>14584.248176533169</v>
       </c>
       <c r="R15" s="8">
-        <f>Q15*(1+$T$17)</f>
-        <v>14366.384716118289</v>
+        <f>Q15*(1+$T$9)</f>
+        <v>14730.090658298501</v>
       </c>
       <c r="S15" s="8">
-        <f t="shared" ref="S15:CD15" si="46">R15*(1+$T$17)</f>
-        <v>14510.048563279472</v>
+        <f>R15*(1+$T$9)</f>
+        <v>14877.391564881485</v>
       </c>
       <c r="T15" s="8">
-        <f t="shared" si="46"/>
-        <v>14655.149048912266</v>
+        <f>S15*(1+$T$9)</f>
+        <v>15026.165480530301</v>
       </c>
       <c r="U15" s="8">
-        <f t="shared" si="46"/>
-        <v>14801.700539401389</v>
+        <f>T15*(1+$T$9)</f>
+        <v>15176.427135335603</v>
       </c>
       <c r="V15" s="8">
-        <f t="shared" si="46"/>
-        <v>14949.717544795403</v>
+        <f>U15*(1+$T$9)</f>
+        <v>15328.19140668896</v>
       </c>
       <c r="W15" s="8">
-        <f t="shared" si="46"/>
-        <v>15099.214720243357</v>
+        <f>V15*(1+$T$9)</f>
+        <v>15481.473320755849</v>
       </c>
       <c r="X15" s="8">
-        <f t="shared" si="46"/>
-        <v>15250.206867445791</v>
+        <f>W15*(1+$T$9)</f>
+        <v>15636.288053963408</v>
       </c>
       <c r="Y15" s="8">
-        <f t="shared" si="46"/>
-        <v>15402.708936120249</v>
+        <f>X15*(1+$T$9)</f>
+        <v>15792.650934503043</v>
       </c>
       <c r="Z15" s="8">
-        <f t="shared" si="46"/>
-        <v>15556.736025481452</v>
+        <f>Y15*(1+$T$9)</f>
+        <v>15950.577443848073</v>
       </c>
       <c r="AA15" s="8">
-        <f t="shared" si="46"/>
-        <v>15712.303385736266</v>
+        <f>Z15*(1+$T$9)</f>
+        <v>16110.083218286554</v>
       </c>
       <c r="AB15" s="8">
-        <f t="shared" si="46"/>
-        <v>15869.426419593628</v>
+        <f>AA15*(1+$T$9)</f>
+        <v>16271.184050469419</v>
       </c>
       <c r="AC15" s="8">
-        <f t="shared" si="46"/>
-        <v>16028.120683789564</v>
+        <f>AB15*(1+$T$9)</f>
+        <v>16433.895890974112</v>
       </c>
       <c r="AD15" s="8">
-        <f t="shared" si="46"/>
-        <v>16188.40189062746</v>
+        <f>AC15*(1+$T$9)</f>
+        <v>16598.234849883855</v>
       </c>
       <c r="AE15" s="8">
-        <f t="shared" si="46"/>
-        <v>16350.285909533734</v>
+        <f>AD15*(1+$T$9)</f>
+        <v>16764.217198382692</v>
       </c>
       <c r="AF15" s="8">
-        <f t="shared" si="46"/>
-        <v>16513.788768629071</v>
+        <f>AE15*(1+$T$9)</f>
+        <v>16931.859370366517</v>
       </c>
       <c r="AG15" s="8">
-        <f t="shared" si="46"/>
-        <v>16678.926656315361</v>
+        <f>AF15*(1+$T$9)</f>
+        <v>17101.177964070182</v>
       </c>
       <c r="AH15" s="8">
-        <f t="shared" si="46"/>
-        <v>16845.715922878517</v>
+        <f>AG15*(1+$T$9)</f>
+        <v>17272.189743710886</v>
       </c>
       <c r="AI15" s="8">
-        <f t="shared" si="46"/>
-        <v>17014.173082107303</v>
+        <f>AH15*(1+$T$9)</f>
+        <v>17444.911641147995</v>
       </c>
       <c r="AJ15" s="8">
-        <f t="shared" si="46"/>
-        <v>17184.314812928376</v>
+        <f>AI15*(1+$T$9)</f>
+        <v>17619.360757559476</v>
       </c>
       <c r="AK15" s="8">
-        <f t="shared" si="46"/>
-        <v>17356.157961057659</v>
+        <f>AJ15*(1+$T$9)</f>
+        <v>17795.554365135071</v>
       </c>
       <c r="AL15" s="8">
-        <f t="shared" si="46"/>
-        <v>17529.719540668237</v>
+        <f>AK15*(1+$T$9)</f>
+        <v>17973.509908786422</v>
       </c>
       <c r="AM15" s="8">
-        <f t="shared" si="46"/>
-        <v>17705.016736074918</v>
+        <f>AL15*(1+$T$9)</f>
+        <v>18153.245007874288</v>
       </c>
       <c r="AN15" s="8">
-        <f t="shared" si="46"/>
-        <v>17882.066903435669</v>
+        <f>AM15*(1+$T$9)</f>
+        <v>18334.777457953031</v>
       </c>
       <c r="AO15" s="8">
-        <f t="shared" si="46"/>
-        <v>18060.887572470026</v>
+        <f>AN15*(1+$T$9)</f>
+        <v>18518.125232532562</v>
       </c>
       <c r="AP15" s="8">
-        <f t="shared" si="46"/>
-        <v>18241.496448194728</v>
+        <f>AO15*(1+$T$9)</f>
+        <v>18703.306484857887</v>
       </c>
       <c r="AQ15" s="8">
-        <f t="shared" si="46"/>
-        <v>18423.911412676676</v>
+        <f>AP15*(1+$T$9)</f>
+        <v>18890.339549706467</v>
       </c>
       <c r="AR15" s="8">
-        <f t="shared" si="46"/>
-        <v>18608.150526803442</v>
+        <f>AQ15*(1+$T$9)</f>
+        <v>19079.242945203532</v>
       </c>
       <c r="AS15" s="8">
-        <f t="shared" si="46"/>
-        <v>18794.232032071475</v>
+        <f>AR15*(1+$T$9)</f>
+        <v>19270.035374655567</v>
       </c>
       <c r="AT15" s="8">
-        <f t="shared" si="46"/>
-        <v>18982.17435239219</v>
+        <f>AS15*(1+$T$9)</f>
+        <v>19462.735728402124</v>
       </c>
       <c r="AU15" s="8">
-        <f t="shared" si="46"/>
-        <v>19171.996095916111</v>
+        <f>AT15*(1+$T$9)</f>
+        <v>19657.363085686145</v>
       </c>
       <c r="AV15" s="8">
-        <f t="shared" si="46"/>
-        <v>19363.716056875273</v>
+        <f>AU15*(1+$T$9)</f>
+        <v>19853.936716543009</v>
       </c>
       <c r="AW15" s="8">
-        <f t="shared" si="46"/>
-        <v>19557.353217444026</v>
+        <f>AV15*(1+$T$9)</f>
+        <v>20052.47608370844</v>
       </c>
       <c r="AX15" s="8">
-        <f t="shared" si="46"/>
-        <v>19752.926749618466</v>
+        <f>AW15*(1+$T$9)</f>
+        <v>20253.000844545524</v>
       </c>
       <c r="AY15" s="8">
-        <f t="shared" si="46"/>
-        <v>19950.456017114651</v>
+        <f>AX15*(1+$T$9)</f>
+        <v>20455.530852990978</v>
       </c>
       <c r="AZ15" s="8">
-        <f t="shared" si="46"/>
-        <v>20149.960577285798</v>
+        <f>AY15*(1+$T$9)</f>
+        <v>20660.086161520889</v>
       </c>
       <c r="BA15" s="8">
-        <f t="shared" si="46"/>
-        <v>20351.460183058654</v>
+        <f>AZ15*(1+$T$9)</f>
+        <v>20866.687023136099</v>
       </c>
       <c r="BB15" s="8">
-        <f t="shared" si="46"/>
-        <v>20554.97478488924</v>
+        <f>BA15*(1+$T$9)</f>
+        <v>21075.353893367461</v>
       </c>
       <c r="BC15" s="8">
-        <f t="shared" si="46"/>
-        <v>20760.524532738134</v>
+        <f>BB15*(1+$T$9)</f>
+        <v>21286.107432301134</v>
       </c>
       <c r="BD15" s="8">
-        <f t="shared" si="46"/>
-        <v>20968.129778065515</v>
+        <f>BC15*(1+$T$9)</f>
+        <v>21498.968506624147</v>
       </c>
       <c r="BE15" s="8">
-        <f t="shared" si="46"/>
-        <v>21177.81107584617</v>
+        <f>BD15*(1+$T$9)</f>
+        <v>21713.958191690388</v>
       </c>
       <c r="BF15" s="8">
-        <f t="shared" si="46"/>
-        <v>21389.589186604633</v>
+        <f>BE15*(1+$T$9)</f>
+        <v>21931.097773607293</v>
       </c>
       <c r="BG15" s="8">
-        <f t="shared" si="46"/>
-        <v>21603.48507847068</v>
+        <f>BF15*(1+$T$9)</f>
+        <v>22150.408751343366</v>
       </c>
       <c r="BH15" s="8">
-        <f t="shared" si="46"/>
-        <v>21819.519929255388</v>
+        <f>BG15*(1+$T$9)</f>
+        <v>22371.912838856799</v>
       </c>
       <c r="BI15" s="8">
-        <f t="shared" si="46"/>
-        <v>22037.715128547941</v>
+        <f>BH15*(1+$T$9)</f>
+        <v>22595.631967245368</v>
       </c>
       <c r="BJ15" s="8">
-        <f t="shared" si="46"/>
-        <v>22258.092279833421</v>
+        <f>BI15*(1+$T$9)</f>
+        <v>22821.58828691782</v>
       </c>
       <c r="BK15" s="8">
-        <f t="shared" si="46"/>
-        <v>22480.673202631755</v>
+        <f>BJ15*(1+$T$9)</f>
+        <v>23049.804169786999</v>
       </c>
       <c r="BL15" s="8">
-        <f t="shared" si="46"/>
-        <v>22705.479934658073</v>
+        <f>BK15*(1+$T$9)</f>
+        <v>23280.302211484868</v>
       </c>
       <c r="BM15" s="8">
-        <f t="shared" si="46"/>
-        <v>22932.534734004654</v>
+        <f>BL15*(1+$T$9)</f>
+        <v>23513.105233599716</v>
       </c>
       <c r="BN15" s="8">
-        <f t="shared" si="46"/>
-        <v>23161.860081344701</v>
+        <f>BM15*(1+$T$9)</f>
+        <v>23748.236285935713</v>
       </c>
       <c r="BO15" s="8">
-        <f t="shared" si="46"/>
-        <v>23393.478682158147</v>
+        <f>BN15*(1+$T$9)</f>
+        <v>23985.718648795071</v>
       </c>
       <c r="BP15" s="8">
-        <f t="shared" si="46"/>
-        <v>23627.413468979728</v>
+        <f>BO15*(1+$T$9)</f>
+        <v>24225.575835283023</v>
       </c>
       <c r="BQ15" s="8">
-        <f t="shared" si="46"/>
-        <v>23863.687603669525</v>
+        <f>BP15*(1+$T$9)</f>
+        <v>24467.831593635852</v>
       </c>
       <c r="BR15" s="8">
-        <f t="shared" si="46"/>
-        <v>24102.324479706222</v>
+        <f>BQ15*(1+$T$9)</f>
+        <v>24712.509909572211</v>
       </c>
       <c r="BS15" s="8">
-        <f t="shared" si="46"/>
-        <v>24343.347724503285</v>
+        <f>BR15*(1+$T$9)</f>
+        <v>24959.635008667934</v>
       </c>
       <c r="BT15" s="8">
-        <f t="shared" si="46"/>
-        <v>24586.781201748319</v>
+        <f>BS15*(1+$T$9)</f>
+        <v>25209.231358754612</v>
       </c>
       <c r="BU15" s="8">
-        <f t="shared" si="46"/>
-        <v>24832.649013765804</v>
+        <f>BT15*(1+$T$9)</f>
+        <v>25461.323672342158</v>
       </c>
       <c r="BV15" s="8">
-        <f t="shared" si="46"/>
-        <v>25080.975503903461</v>
+        <f>BU15*(1+$T$9)</f>
+        <v>25715.936909065578</v>
       </c>
       <c r="BW15" s="8">
-        <f t="shared" si="46"/>
-        <v>25331.785258942495</v>
+        <f>BV15*(1+$T$9)</f>
+        <v>25973.096278156234</v>
       </c>
       <c r="BX15" s="8">
-        <f t="shared" si="46"/>
-        <v>25585.10311153192</v>
+        <f>BW15*(1+$T$9)</f>
+        <v>26232.827240937797</v>
       </c>
       <c r="BY15" s="8">
-        <f t="shared" si="46"/>
-        <v>25840.954142647239</v>
+        <f>BX15*(1+$T$9)</f>
+        <v>26495.155513347174</v>
       </c>
       <c r="BZ15" s="8">
-        <f t="shared" si="46"/>
-        <v>26099.363684073713</v>
+        <f>BY15*(1+$T$9)</f>
+        <v>26760.107068480647</v>
       </c>
       <c r="CA15" s="8">
-        <f t="shared" si="46"/>
-        <v>26360.357320914449</v>
+        <f>BZ15*(1+$T$9)</f>
+        <v>27027.708139165454</v>
       </c>
       <c r="CB15" s="8">
-        <f t="shared" si="46"/>
-        <v>26623.960894123593</v>
+        <f>CA15*(1+$T$9)</f>
+        <v>27297.985220557108</v>
       </c>
       <c r="CC15" s="8">
-        <f t="shared" si="46"/>
-        <v>26890.200503064829</v>
+        <f>CB15*(1+$T$9)</f>
+        <v>27570.965072762679</v>
       </c>
       <c r="CD15" s="8">
-        <f t="shared" si="46"/>
-        <v>27159.102508095479</v>
+        <f>CC15*(1+$T$9)</f>
+        <v>27846.674723490305</v>
       </c>
       <c r="CE15" s="8">
-        <f t="shared" ref="CE15:DL15" si="47">CD15*(1+$T$17)</f>
-        <v>27430.693533176433</v>
+        <f>CD15*(1+$T$9)</f>
+        <v>28125.141470725208</v>
       </c>
       <c r="CF15" s="8">
-        <f t="shared" si="47"/>
-        <v>27705.000468508199</v>
+        <f>CE15*(1+$T$9)</f>
+        <v>28406.392885432459</v>
       </c>
       <c r="CG15" s="8">
-        <f t="shared" si="47"/>
-        <v>27982.050473193282</v>
+        <f>CF15*(1+$T$9)</f>
+        <v>28690.456814286783</v>
       </c>
       <c r="CH15" s="8">
-        <f t="shared" si="47"/>
-        <v>28261.870977925213</v>
+        <f>CG15*(1+$T$9)</f>
+        <v>28977.361382429652</v>
       </c>
       <c r="CI15" s="8">
-        <f t="shared" si="47"/>
-        <v>28544.489687704467</v>
+        <f>CH15*(1+$T$9)</f>
+        <v>29267.13499625395</v>
       </c>
       <c r="CJ15" s="8">
-        <f t="shared" si="47"/>
-        <v>28829.934584581511</v>
+        <f>CI15*(1+$T$9)</f>
+        <v>29559.80634621649</v>
       </c>
       <c r="CK15" s="8">
-        <f t="shared" si="47"/>
-        <v>29118.233930427326</v>
+        <f>CJ15*(1+$T$9)</f>
+        <v>29855.404409678657</v>
       </c>
       <c r="CL15" s="8">
-        <f t="shared" si="47"/>
-        <v>29409.416269731599</v>
+        <f>CK15*(1+$T$9)</f>
+        <v>30153.958453775442</v>
       </c>
       <c r="CM15" s="8">
-        <f t="shared" si="47"/>
-        <v>29703.510432428913</v>
+        <f>CL15*(1+$T$9)</f>
+        <v>30455.498038313195</v>
       </c>
       <c r="CN15" s="8">
-        <f t="shared" si="47"/>
-        <v>30000.545536753201</v>
+        <f>CM15*(1+$T$9)</f>
+        <v>30760.053018696326</v>
       </c>
       <c r="CO15" s="8">
-        <f t="shared" si="47"/>
-        <v>30300.550992120734</v>
+        <f>CN15*(1+$T$9)</f>
+        <v>31067.653548883289</v>
       </c>
       <c r="CP15" s="8">
-        <f t="shared" si="47"/>
-        <v>30603.556502041942</v>
+        <f>CO15*(1+$T$9)</f>
+        <v>31378.330084372123</v>
       </c>
       <c r="CQ15" s="8">
-        <f t="shared" si="47"/>
-        <v>30909.59206706236</v>
+        <f>CP15*(1+$T$9)</f>
+        <v>31692.113385215845</v>
       </c>
       <c r="CR15" s="8">
-        <f t="shared" si="47"/>
-        <v>31218.687987732985</v>
+        <f>CQ15*(1+$T$9)</f>
+        <v>32009.034519068005</v>
       </c>
       <c r="CS15" s="8">
-        <f t="shared" si="47"/>
-        <v>31530.874867610313</v>
+        <f>CR15*(1+$T$9)</f>
+        <v>32329.124864258687</v>
       </c>
       <c r="CT15" s="8">
-        <f t="shared" si="47"/>
-        <v>31846.183616286417</v>
+        <f>CS15*(1+$T$9)</f>
+        <v>32652.416112901275</v>
       </c>
       <c r="CU15" s="8">
-        <f t="shared" si="47"/>
-        <v>32164.64545244928</v>
+        <f>CT15*(1+$T$9)</f>
+        <v>32978.94027403029</v>
       </c>
       <c r="CV15" s="8">
-        <f t="shared" si="47"/>
-        <v>32486.291906973773</v>
+        <f>CU15*(1+$T$9)</f>
+        <v>33308.729676770592</v>
       </c>
       <c r="CW15" s="8">
-        <f t="shared" si="47"/>
-        <v>32811.154826043508</v>
+        <f>CV15*(1+$T$9)</f>
+        <v>33641.816973538298</v>
       </c>
       <c r="CX15" s="8">
-        <f t="shared" si="47"/>
-        <v>33139.266374303945</v>
+        <f>CW15*(1+$T$9)</f>
+        <v>33978.235143273683</v>
       </c>
       <c r="CY15" s="8">
-        <f t="shared" si="47"/>
-        <v>33470.659038046986</v>
+        <f>CX15*(1+$T$9)</f>
+        <v>34318.017494706422</v>
       </c>
       <c r="CZ15" s="8">
-        <f t="shared" si="47"/>
-        <v>33805.365628427455</v>
+        <f>CY15*(1+$T$9)</f>
+        <v>34661.197669653484</v>
       </c>
       <c r="DA15" s="8">
-        <f t="shared" si="47"/>
-        <v>34143.41928471173</v>
+        <f>CZ15*(1+$T$9)</f>
+        <v>35007.809646350019</v>
       </c>
       <c r="DB15" s="8">
-        <f t="shared" si="47"/>
-        <v>34484.853477558849</v>
+        <f>DA15*(1+$T$9)</f>
+        <v>35357.887742813517</v>
       </c>
       <c r="DC15" s="8">
-        <f t="shared" si="47"/>
-        <v>34829.702012334441</v>
+        <f>DB15*(1+$T$9)</f>
+        <v>35711.466620241656</v>
       </c>
       <c r="DD15" s="8">
-        <f t="shared" si="47"/>
-        <v>35177.999032457788</v>
+        <f>DC15*(1+$T$9)</f>
+        <v>36068.581286444074</v>
       </c>
       <c r="DE15" s="8">
-        <f t="shared" si="47"/>
-        <v>35529.779022782364</v>
+        <f>DD15*(1+$T$9)</f>
+        <v>36429.267099308512</v>
       </c>
       <c r="DF15" s="8">
-        <f t="shared" si="47"/>
-        <v>35885.076813010186</v>
+        <f>DE15*(1+$T$9)</f>
+        <v>36793.559770301596</v>
       </c>
       <c r="DG15" s="8">
-        <f t="shared" si="47"/>
-        <v>36243.927581140291</v>
+        <f>DF15*(1+$T$9)</f>
+        <v>37161.495368004609</v>
       </c>
       <c r="DH15" s="8">
-        <f t="shared" si="47"/>
-        <v>36606.366856951696</v>
+        <f>DG15*(1+$T$9)</f>
+        <v>37533.110321684653</v>
       </c>
       <c r="DI15" s="8">
-        <f t="shared" si="47"/>
-        <v>36972.430525521217</v>
+        <f>DH15*(1+$T$9)</f>
+        <v>37908.441424901503</v>
       </c>
       <c r="DJ15" s="8">
-        <f t="shared" si="47"/>
-        <v>37342.154830776431</v>
+        <f>DI15*(1+$T$9)</f>
+        <v>38287.525839150519</v>
       </c>
       <c r="DK15" s="8">
-        <f t="shared" si="47"/>
-        <v>37715.576379084196</v>
+        <f>DJ15*(1+$T$9)</f>
+        <v>38670.401097542024</v>
       </c>
       <c r="DL15" s="8">
-        <f t="shared" si="47"/>
-        <v>38092.732142875037</v>
+        <f>DK15*(1+$T$9)</f>
+        <v>39057.105108517448</v>
       </c>
     </row>
     <row r="16" spans="1:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1830,536 +1856,453 @@
     <row r="17" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9">
         <f>I7/H7-1</f>
         <v>6.6642863073984815E-2</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" ref="J17:Q17" si="48">J7/I7-1</f>
+        <f t="shared" ref="J17:Q17" si="36">J7/I7-1</f>
         <v>6.7523910948357413E-2</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="36"/>
         <v>6.8407403656968624E-2</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="36"/>
         <v>6.9291908957362702E-2</v>
       </c>
       <c r="M17" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="36"/>
         <v>7.0175987188679567E-2</v>
       </c>
       <c r="N17" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="36"/>
         <v>7.1058200713904673E-2</v>
       </c>
       <c r="O17" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="36"/>
         <v>7.1937123334227193E-2</v>
       </c>
       <c r="P17" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="36"/>
         <v>7.2811349544925852E-2</v>
       </c>
       <c r="Q17" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="36"/>
         <v>7.3679503505961419E-2</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T17" s="10">
-        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="9">
         <f>D7/C7-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" ref="E18:F18" si="49">E7/D7-1</f>
+        <f t="shared" ref="E18:F18" si="37">E7/D7-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000231E-2</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="T18" s="10">
-        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="11">
-        <f>C14/C13</f>
-        <v>0.20552677029360966</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
-        <f>H14/H13</f>
-        <v>0.20889832809459191</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="O19" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="P19" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="T19" s="8">
-        <f>NPV(T18,H15:DL15)+C62</f>
-        <v>792613.88653164415</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-    </row>
-    <row r="21" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="10">
         <f>C13/C7</f>
         <v>0.1923108859918625</v>
       </c>
-      <c r="D21" s="11">
-        <f t="shared" ref="D21:H21" si="50">D13/D7</f>
+      <c r="D20" s="10">
+        <f t="shared" ref="D20:H20" si="38">D13/D7</f>
         <v>0.19231088599186263</v>
       </c>
-      <c r="E21" s="11">
-        <f t="shared" si="50"/>
+      <c r="E20" s="10">
+        <f t="shared" si="38"/>
         <v>0.19231088599186255</v>
       </c>
-      <c r="F21" s="11">
-        <f t="shared" si="50"/>
+      <c r="F20" s="10">
+        <f t="shared" si="38"/>
         <v>0.19231088599186252</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11">
-        <f t="shared" si="50"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <f t="shared" si="38"/>
         <v>0.19231088599186266</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I20" s="10">
         <v>0.2</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J20" s="10">
         <v>0.2</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K20" s="10">
         <v>0.2</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L20" s="10">
         <v>0.2</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M20" s="10">
         <v>0.2</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N20" s="10">
         <v>0.2</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O20" s="10">
         <v>0.2</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P20" s="10">
         <v>0.2</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q20" s="10">
         <v>0.2</v>
       </c>
     </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" s="3"/>
+    </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="T23" s="3">
-        <f>Main!$O$4/Model!T19</f>
-        <v>1.3336841783402149</v>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4">
+        <v>36892</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4">
-        <v>36892</v>
+        <v>305501</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4">
-        <v>305501</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="T25" s="4">
-        <f>T19/Main!O3</f>
-        <v>367.4033237837541</v>
+        <f>15035+263735</f>
+        <v>278770</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" s="4">
-        <f>15035+263735</f>
-        <v>278770</v>
+        <v>31144</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="4">
-        <v>31144</v>
+        <v>28131</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="4">
-        <v>28131</v>
+        <v>47401</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="4">
-        <v>47401</v>
+        <v>24034</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="4">
-        <v>24034</v>
+        <v>30215</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
-        <v>30215</v>
+        <v>17984</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C32" s="4">
-        <v>17984</v>
+        <v>56974</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" s="4">
-        <v>56974</v>
+        <v>34331</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C34" s="4">
-        <v>34331</v>
+        <v>8628</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" s="4">
-        <v>8628</v>
+        <v>25291</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="4">
-        <v>25291</v>
+      <c r="B36" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="7" t="s">
-        <v>24</v>
+      <c r="B37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4">
+        <v>5288</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C38" s="4">
-        <v>5288</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C39" s="4">
-        <v>4291</v>
+        <v>176559</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C40" s="4">
-        <v>176559</v>
+        <v>27033</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C41" s="4">
-        <v>27033</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C42" s="4">
-        <v>5299</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="4">
         <v>20766</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="8" t="s">
+    <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="8">
-        <f>SUM(C23:C43)</f>
+      <c r="C43" s="8">
+        <f>SUM(C22:C42)</f>
         <v>1164532</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="s">
-        <v>28</v>
+      <c r="B46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="4">
+        <f>117123+31974</f>
+        <v>149097</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" s="4">
-        <f>117123+31974</f>
-        <v>149097</v>
+        <v>32306</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C48" s="4">
-        <v>32306</v>
+        <v>17734</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C49" s="4">
-        <v>17734</v>
+        <v>10782</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C50" s="4">
-        <v>10782</v>
+        <v>37090</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C51" s="4">
-        <v>37090</v>
+        <v>14380</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52" s="4">
-        <v>14380</v>
+        <v>9509</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" s="4">
-        <v>9509</v>
+        <v>44461</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="4">
-        <v>44461</v>
+      <c r="B54" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="7" t="s">
-        <v>24</v>
+      <c r="B55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="4">
+        <v>17916</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C56" s="4">
-        <v>17916</v>
+        <v>7047</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" s="4">
-        <v>7047</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="4">
         <v>81466</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="8" t="s">
+    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="8">
-        <f>SUM(C47:C58)</f>
+      <c r="C58" s="8">
+        <f>SUM(C46:C57)</f>
         <v>421788</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="4">
+        <f>C43-C58</f>
+        <v>742744</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C61" s="4">
-        <f>C44-C59</f>
-        <v>742744</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" s="4">
-        <f>C61-C41-SUM(C33:C35)</f>
+        <f>C60-C40-SUM(C32:C34)</f>
         <v>615778</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="3">
+        <f>Main!$O$4/Model!C60</f>
+        <v>1.3854722219230313</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C64" s="3">
         <f>Main!$O$4/Model!C61</f>
-        <v>1.4232314229398018</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="3">
-        <f>Main!$O$4/Model!C62</f>
-        <v>1.7166845843794356</v>
+        <v>1.6711398913244708</v>
       </c>
     </row>
   </sheetData>
